--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-VitalsBodySite.xlsx
+++ b/docs/ValueSet-VitalsBodySite.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,20 @@
   <si>
     <t>Structure of axillary fossa (body structure)
 76261009 |Skin structure of axilla (body structure)|</t>
+  </si>
+  <si>
+    <t>764473004</t>
+  </si>
+  <si>
+    <t>764473004 |Skin structure of left axilla (body structure)|
+20437008 |Structure of left axillary region (body structure)|</t>
+  </si>
+  <si>
+    <t>764474005</t>
+  </si>
+  <si>
+    <t>764474005 |Skin structure of right axilla (body structure)|
+19654004 |Structure of right axillary region (body structure)|</t>
   </si>
   <si>
     <t>840581000</t>
@@ -784,7 +798,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1351,15 +1365,31 @@
         <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
